--- a/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-jp-medicationtiming.xlsx
@@ -150,10 +150,6 @@
 A Timing schedule can be a list of events and/or criteria for when the event happens, which can be expressed in a structured form and/or as a code. When both event and a repeating specification are provided, the list of events should be understood as an interpretation of the information in the repeat structure.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -257,6 +253,10 @@
   </si>
   <si>
     <t>たとえば、投薬投与の記録では、一般的な仕様を取得し、それを正確な仕様に変える必要があります。 / In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>QLIST&lt;TS&gt;</t>
@@ -1003,21 +1003,21 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1028,25 +1028,25 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1097,37 +1097,37 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH2" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -1146,16 +1146,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1193,19 +1193,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AC3" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AC3" t="s" s="2">
+      <c r="AD3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE3" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AD3" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE3" t="s" s="2">
+      <c r="AF3" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>63</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -1217,25 +1217,25 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1248,25 +1248,25 @@
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="J4" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="P4" t="s" s="2">
         <v>38</v>
@@ -1315,7 +1315,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
@@ -1327,21 +1327,21 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1361,20 +1361,20 @@
         <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>74</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>38</v>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
@@ -1435,7 +1435,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1460,7 +1460,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1469,7 +1469,7 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>79</v>
@@ -1537,7 +1537,7 @@
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
@@ -1568,25 +1568,25 @@
         <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1637,25 +1637,25 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1686,16 +1686,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1733,19 +1733,19 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AC8" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="AC8" t="s" s="2">
+      <c r="AD8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE8" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AD8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE8" t="s" s="2">
+      <c r="AF8" t="s" s="2">
         <v>62</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>63</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -1757,13 +1757,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1782,7 +1782,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -1791,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>88</v>
@@ -1857,13 +1857,13 @@
         <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -1888,7 +1888,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -1897,7 +1897,7 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>93</v>
@@ -1967,13 +1967,13 @@
         <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -1998,7 +1998,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2007,7 +2007,7 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>93</v>
@@ -2075,13 +2075,13 @@
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -2106,7 +2106,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -2115,7 +2115,7 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>104</v>
@@ -2185,13 +2185,13 @@
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -2216,7 +2216,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -2225,7 +2225,7 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>104</v>
@@ -2295,13 +2295,13 @@
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -2326,7 +2326,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -2335,7 +2335,7 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>114</v>
@@ -2403,13 +2403,13 @@
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2434,7 +2434,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2443,7 +2443,7 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>93</v>
@@ -2513,13 +2513,13 @@
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
@@ -2544,7 +2544,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -2553,7 +2553,7 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>93</v>
@@ -2621,13 +2621,13 @@
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -2652,7 +2652,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -2661,7 +2661,7 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>104</v>
@@ -2729,13 +2729,13 @@
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -2760,7 +2760,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -2769,7 +2769,7 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>104</v>
@@ -2837,13 +2837,13 @@
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -2868,7 +2868,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -2877,7 +2877,7 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>114</v>
@@ -2945,13 +2945,13 @@
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -2985,7 +2985,7 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>114</v>
@@ -3057,13 +3057,13 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -3091,7 +3091,7 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>146</v>
@@ -3165,13 +3165,13 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
@@ -3199,7 +3199,7 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>114</v>
@@ -3275,7 +3275,7 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3300,7 +3300,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -3309,7 +3309,7 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>159</v>
@@ -3377,13 +3377,13 @@
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -3408,7 +3408,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -3417,7 +3417,7 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>164</v>
@@ -3485,13 +3485,13 @@
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
